--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Jana2023\CnaeProcess\CnaeIgbeProcesses\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD2B778-CDBB-4C52-9A46-41CFE30D229D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C79A66-589B-41C6-94CD-AC8CA8853570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2088" windowWidth="16584" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>https://cnae.ibge.gov.br/?view=estrutura</t>
-  </si>
-  <si>
-    <t>cnaeactivities</t>
   </si>
   <si>
     <t>PATH_PYTHON</t>
@@ -564,7 +561,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -613,9 +610,7 @@
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
@@ -651,18 +646,18 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
